--- a/01-raw-data/World Bank/GDP Deflator.xlsx
+++ b/01-raw-data/World Bank/GDP Deflator.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ee9ef301486063b/Documentos/GitHub/Large-Devaluations-and-CO2/01-raw-data/World Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4D2F04E46CFB4ACB3E20F30D57FB54683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9B15E66-F062-4021-808B-6DE63F00AB90}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D2F04E46CFB4ACB3E20F30D57FB54683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4CFA434-CE32-4BAB-959C-C6855F98B898}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
     <sheet name="Metadata - Countries" sheetId="3" r:id="rId2"/>
     <sheet name="Metadata - Indicators" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$BP$265</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1917,6 +1920,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2184,8 +2191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13CF6F7-E545-4842-8822-B4F0C48413B9}">
   <dimension ref="A1:BP265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:IV4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8953,6 +8963,12 @@
       <c r="D69" t="s">
         <v>3</v>
       </c>
+      <c r="AI69">
+        <v>11.984142565943801</v>
+      </c>
+      <c r="AJ69">
+        <v>11.984142565943801</v>
+      </c>
       <c r="AK69">
         <v>11.984142565943801</v>
       </c>
@@ -17302,6 +17318,27 @@
       <c r="D162" t="s">
         <v>3</v>
       </c>
+      <c r="AI162">
+        <v>32.210486654437503</v>
+      </c>
+      <c r="AJ162">
+        <v>32.210486654437503</v>
+      </c>
+      <c r="AK162">
+        <v>32.210486654437503</v>
+      </c>
+      <c r="AL162">
+        <v>32.210486654437503</v>
+      </c>
+      <c r="AM162">
+        <v>32.210486654437503</v>
+      </c>
+      <c r="AN162">
+        <v>32.210486654437503</v>
+      </c>
+      <c r="AO162">
+        <v>32.210486654437503</v>
+      </c>
       <c r="AP162">
         <v>32.210486654437503</v>
       </c>
@@ -22115,6 +22152,27 @@
       <c r="D212" t="s">
         <v>3</v>
       </c>
+      <c r="AI212">
+        <v>84.381139489194496</v>
+      </c>
+      <c r="AJ212">
+        <v>84.381139489194496</v>
+      </c>
+      <c r="AK212">
+        <v>84.381139489194496</v>
+      </c>
+      <c r="AL212">
+        <v>84.381139489194496</v>
+      </c>
+      <c r="AM212">
+        <v>84.381139489194496</v>
+      </c>
+      <c r="AN212">
+        <v>84.381139489194496</v>
+      </c>
+      <c r="AO212">
+        <v>84.381139489194496</v>
+      </c>
       <c r="AP212">
         <v>84.381139489194496</v>
       </c>
@@ -22319,6 +22377,21 @@
       </c>
       <c r="D214" t="s">
         <v>3</v>
+      </c>
+      <c r="AI214">
+        <v>2.5821430538469401</v>
+      </c>
+      <c r="AJ214">
+        <v>2.5821430538469401</v>
+      </c>
+      <c r="AK214">
+        <v>2.5821430538469401</v>
+      </c>
+      <c r="AL214">
+        <v>2.5821430538469401</v>
+      </c>
+      <c r="AM214">
+        <v>2.5821430538469401</v>
       </c>
       <c r="AN214">
         <v>2.5821430538469401</v>
@@ -26765,8 +26838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F2AF1B-38C3-4D3D-B0AA-E4025ACE5D5A}">
   <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
